--- a/data/trans_orig/Q5409A_2023-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/Q5409A_2023-Provincia-trans_orig.xlsx
@@ -1032,19 +1032,19 @@
         <v>2701</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>625</v>
+        <v>664</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>5641</v>
+        <v>5932</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>0.1511155857384542</v>
+        <v>0.1511155857384543</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.03497732213641611</v>
+        <v>0.03715430725383536</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.3155980632350673</v>
+        <v>0.3318740392068565</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>4</v>
@@ -1053,19 +1053,19 @@
         <v>2701</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>661</v>
+        <v>627</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>6200</v>
+        <v>5917</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1304164524260743</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.03193802986460352</v>
+        <v>0.03028379349972084</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2993935838898954</v>
+        <v>0.2857065762123281</v>
       </c>
     </row>
     <row r="11">
@@ -1103,19 +1103,19 @@
         <v>12816</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>9553</v>
+        <v>9554</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>15450</v>
+        <v>15240</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>0.7170334156330259</v>
+        <v>0.7170334156330258</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.5345209943982554</v>
+        <v>0.5345546773430482</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.864436916166237</v>
+        <v>0.8526573528329517</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>23</v>
@@ -1124,19 +1124,19 @@
         <v>14745</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>11131</v>
+        <v>10843</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>17679</v>
+        <v>17547</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.7120334128893951</v>
+        <v>0.7120334128893953</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.5374983870173397</v>
+        <v>0.5235871347871448</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.8536815477428296</v>
+        <v>0.847334651171462</v>
       </c>
     </row>
     <row r="12">
@@ -1216,7 +1216,7 @@
         <v>0</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>3814</v>
+        <v>3914</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.06930916615249007</v>
@@ -1225,7 +1225,7 @@
         <v>0</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2133976249079938</v>
+        <v>0.2189890237746172</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>2</v>
@@ -1237,7 +1237,7 @@
         <v>0</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>4160</v>
+        <v>3994</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.05981550828159837</v>
@@ -1246,7 +1246,7 @@
         <v>0</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.200856603593857</v>
+        <v>0.1928844713324725</v>
       </c>
     </row>
     <row r="14">
@@ -1287,7 +1287,7 @@
         <v>0</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>3405</v>
+        <v>3520</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.06254183247602975</v>
@@ -1296,7 +1296,7 @@
         <v>0</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.1905376620034806</v>
+        <v>0.1969316891739473</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>3</v>
@@ -1305,19 +1305,19 @@
         <v>2024</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>528</v>
+        <v>530</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>4899</v>
+        <v>5250</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.09773462640293212</v>
+        <v>0.09773462640293214</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.02549088878343944</v>
+        <v>0.02558638713121013</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.2365467584907727</v>
+        <v>0.2534995941836796</v>
       </c>
     </row>
     <row r="15">
@@ -1412,16 +1412,16 @@
         <v>0</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>2485</v>
+        <v>2535</v>
       </c>
       <c r="G16" s="6" t="n">
-        <v>0.07040534682923685</v>
+        <v>0.07040534682923687</v>
       </c>
       <c r="H16" s="6" t="n">
         <v>0</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2869307313288966</v>
+        <v>0.2926391738307342</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>3</v>
@@ -1430,19 +1430,19 @@
         <v>1383</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>3827</v>
+        <v>3850</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.09351923324980817</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.02636379159162208</v>
+        <v>0.02653681363155607</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.2588400262876801</v>
+        <v>0.2604362979908847</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>4</v>
@@ -1451,19 +1451,19 @@
         <v>1992</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>412</v>
+        <v>588</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>4385</v>
+        <v>5069</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.08497949278425972</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.01756088916817479</v>
+        <v>0.02507306166270134</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1870157623072009</v>
+        <v>0.2161989819201744</v>
       </c>
     </row>
     <row r="17">
@@ -1480,19 +1480,19 @@
         <v>6227</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>3534</v>
+        <v>3772</v>
       </c>
       <c r="F17" s="5" t="n">
         <v>8006</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.7189015444221882</v>
+        <v>0.7189015444221883</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.407947669740559</v>
+        <v>0.4354469952944283</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9242595780540456</v>
+        <v>0.9242898518702887</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>24</v>
@@ -1501,19 +1501,19 @@
         <v>12296</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>9996</v>
+        <v>9678</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>13978</v>
+        <v>13832</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.8317385994073975</v>
+        <v>0.8317385994073976</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.6761618609623594</v>
+        <v>0.6546261490157098</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9454504017796491</v>
+        <v>0.9356045097935578</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>35</v>
@@ -1522,19 +1522,19 @@
         <v>18523</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>15584</v>
+        <v>15259</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>21050</v>
+        <v>21012</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.7900494110581414</v>
+        <v>0.7900494110581416</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.664696336874448</v>
+        <v>0.6508308042356895</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.8977988839817574</v>
+        <v>0.896191169448784</v>
       </c>
     </row>
     <row r="18">
@@ -1601,16 +1601,16 @@
         <v>0</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>3159</v>
+        <v>2788</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>0.06461764651325209</v>
+        <v>0.06461764651325211</v>
       </c>
       <c r="H19" s="6" t="n">
         <v>0</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.3647481494839792</v>
+        <v>0.3218601050412362</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>0</v>
@@ -1635,7 +1635,7 @@
         <v>0</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>2785</v>
+        <v>2837</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.02387387048101997</v>
@@ -1644,7 +1644,7 @@
         <v>0</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.1187855492406394</v>
+        <v>0.1210088474126942</v>
       </c>
     </row>
     <row r="20">
@@ -1664,7 +1664,7 @@
         <v>0</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>3738</v>
+        <v>3739</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.146075462235323</v>
@@ -1673,7 +1673,7 @@
         <v>0</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.4314874667598582</v>
+        <v>0.4316266652513985</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>2</v>
@@ -1685,7 +1685,7 @@
         <v>0</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>3337</v>
+        <v>3462</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.07474216734279425</v>
@@ -1694,7 +1694,7 @@
         <v>0</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.2257328982461245</v>
+        <v>0.2341981536160425</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>4</v>
@@ -1703,19 +1703,19 @@
         <v>2370</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>653</v>
+        <v>635</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>5315</v>
+        <v>5247</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.1010972256765789</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.02784550913109076</v>
+        <v>0.02707878069513136</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.2267040406924154</v>
+        <v>0.2237823481331594</v>
       </c>
     </row>
     <row r="21">
@@ -1823,7 +1823,7 @@
         <v>0</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>2357</v>
+        <v>2146</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.02228646777369188</v>
@@ -1832,7 +1832,7 @@
         <v>0</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.1240616588019493</v>
+        <v>0.1129572786568516</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>1</v>
@@ -1844,7 +1844,7 @@
         <v>0</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>2161</v>
+        <v>2963</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.01544090725244462</v>
@@ -1853,7 +1853,7 @@
         <v>0</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.07878534208715514</v>
+        <v>0.1080276245190932</v>
       </c>
     </row>
     <row r="23">
@@ -1870,19 +1870,19 @@
         <v>2003</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>4635</v>
+        <v>4426</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>0.2377168270810085</v>
+        <v>0.2377168270810084</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.06995628947690766</v>
+        <v>0.06970122971398615</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.5501911975758089</v>
+        <v>0.5253408103432249</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>29</v>
@@ -1891,19 +1891,19 @@
         <v>12671</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>9634</v>
+        <v>9745</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>14934</v>
+        <v>15241</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>0.666848337857241</v>
+        <v>0.6668483378572412</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.5069767871962571</v>
+        <v>0.5128482875729486</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.7859330721083448</v>
+        <v>0.8020969802146423</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>32</v>
@@ -1912,19 +1912,19 @@
         <v>14674</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>11307</v>
+        <v>11320</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>18358</v>
+        <v>18239</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.5350353579618482</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.4122634245175024</v>
+        <v>0.4127322175811408</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.669322641331852</v>
+        <v>0.6649920872044287</v>
       </c>
     </row>
     <row r="24">
@@ -2004,16 +2004,16 @@
         <v>0</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>1751</v>
+        <v>2420</v>
       </c>
       <c r="N25" s="6" t="n">
-        <v>0.02266537451868397</v>
+        <v>0.02266537451868398</v>
       </c>
       <c r="O25" s="6" t="n">
         <v>0</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.09214535862574555</v>
+        <v>0.1273440947507357</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>1</v>
@@ -2025,7 +2025,7 @@
         <v>0</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>2384</v>
+        <v>2612</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.01570342816720596</v>
@@ -2034,7 +2034,7 @@
         <v>0</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.08690446170593553</v>
+        <v>0.09523026172007988</v>
       </c>
     </row>
     <row r="26">
@@ -2051,19 +2051,19 @@
         <v>6422</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>3790</v>
+        <v>3999</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>7836</v>
+        <v>7838</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>0.7622831729189915</v>
+        <v>0.7622831729189916</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.449808802424192</v>
+        <v>0.4746591896567749</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.9300437105230924</v>
+        <v>0.9302987702860138</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>12</v>
@@ -2072,19 +2072,19 @@
         <v>5476</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>3268</v>
+        <v>3110</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>8388</v>
+        <v>8267</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>0.2881998198503831</v>
+        <v>0.2881998198503832</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.1719734516336635</v>
+        <v>0.163668826750378</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.4414153600496368</v>
+        <v>0.4350579875875316</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>23</v>
@@ -2093,19 +2093,19 @@
         <v>11898</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>8550</v>
+        <v>8518</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>15299</v>
+        <v>15389</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.4338203066185013</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.3117495822000065</v>
+        <v>0.3105855960282097</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.5578161840910714</v>
+        <v>0.5610790018952411</v>
       </c>
     </row>
     <row r="27">
@@ -2244,19 +2244,19 @@
         <v>2055</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>517</v>
+        <v>551</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>3626</v>
+        <v>3633</v>
       </c>
       <c r="G29" s="6" t="n">
-        <v>0.4031536332616403</v>
+        <v>0.4031536332616402</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.1014420656240102</v>
+        <v>0.108139018021754</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.7112147240290043</v>
+        <v>0.7126228848310344</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>24</v>
@@ -2265,19 +2265,19 @@
         <v>9218</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>6716</v>
+        <v>7020</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>11139</v>
+        <v>11173</v>
       </c>
       <c r="N29" s="6" t="n">
-        <v>0.6985289471302433</v>
+        <v>0.6985289471302432</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.5089400497247388</v>
+        <v>0.5319797595342658</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.8440817612358624</v>
+        <v>0.8466921527264057</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>28</v>
@@ -2286,19 +2286,19 @@
         <v>11273</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>8576</v>
+        <v>8391</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>13892</v>
+        <v>13696</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.6162142718332553</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.4687607410787427</v>
+        <v>0.4586989827654661</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.7593644961630794</v>
+        <v>0.7486729021905479</v>
       </c>
     </row>
     <row r="30">
@@ -2331,7 +2331,7 @@
         <v>0</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>1945</v>
+        <v>2209</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.03528889397194645</v>
@@ -2340,7 +2340,7 @@
         <v>0</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.1474154879387104</v>
+        <v>0.1673654197677712</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>1</v>
@@ -2352,7 +2352,7 @@
         <v>0</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>2478</v>
+        <v>2400</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.02545464678708251</v>
@@ -2361,7 +2361,7 @@
         <v>0</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.1354485272162055</v>
+        <v>0.1311765752311391</v>
       </c>
     </row>
     <row r="31">
@@ -2378,19 +2378,19 @@
         <v>2039</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>513</v>
+        <v>522</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>3625</v>
+        <v>3588</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.3999910794227849</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.1007231924340145</v>
+        <v>0.102469454088004</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.7111509329368733</v>
+        <v>0.7037511441995531</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>6</v>
@@ -2399,19 +2399,19 @@
         <v>2749</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>1206</v>
+        <v>1179</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>5433</v>
+        <v>5356</v>
       </c>
       <c r="N31" s="6" t="n">
-        <v>0.2082986389715469</v>
+        <v>0.208298638971547</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.09135734647626492</v>
+        <v>0.08932682268765507</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.4117486359931052</v>
+        <v>0.4058750943132233</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>10</v>
@@ -2420,19 +2420,19 @@
         <v>4788</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>2515</v>
+        <v>2665</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>7599</v>
+        <v>7896</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.2617191526426731</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.1374762040172109</v>
+        <v>0.1456602514780306</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.4153986948577497</v>
+        <v>0.4315937107358082</v>
       </c>
     </row>
     <row r="32">
@@ -2452,7 +2452,7 @@
         <v>0</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>2567</v>
+        <v>3006</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.1968552873155749</v>
@@ -2461,7 +2461,7 @@
         <v>0</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.5034900967076756</v>
+        <v>0.589599693626125</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>2</v>
@@ -2473,7 +2473,7 @@
         <v>0</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>2398</v>
+        <v>2402</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.05788351992626337</v>
@@ -2482,7 +2482,7 @@
         <v>0</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.1817186687546086</v>
+        <v>0.1820052959534035</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>4</v>
@@ -2491,19 +2491,19 @@
         <v>1767</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>484</v>
+        <v>400</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>4304</v>
+        <v>4059</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.09661192873698929</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.02643646861563374</v>
+        <v>0.02187655085797646</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.2352629419209282</v>
+        <v>0.2218624561552381</v>
       </c>
     </row>
     <row r="33">
@@ -2595,19 +2595,19 @@
         <v>1823</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>645</v>
+        <v>652</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>3644</v>
+        <v>3820</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.1794488468197039</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.06347652279300739</v>
+        <v>0.06413345596695054</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.3586726793804568</v>
+        <v>0.3760240747138524</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>7</v>
@@ -2616,19 +2616,19 @@
         <v>2633</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>1134</v>
+        <v>1198</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>4554</v>
+        <v>4456</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.3087283200666464</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.1329579619306657</v>
+        <v>0.1404952579456158</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.5339923635679211</v>
+        <v>0.5225191201786031</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>12</v>
@@ -2637,19 +2637,19 @@
         <v>4456</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>2576</v>
+        <v>2477</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>6981</v>
+        <v>6897</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.2384439433043051</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.1378649260227205</v>
+        <v>0.1325304913813904</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.3735830935521008</v>
+        <v>0.3690804476538441</v>
       </c>
     </row>
     <row r="35">
@@ -2666,19 +2666,19 @@
         <v>7111</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>5026</v>
+        <v>4659</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>8755</v>
+        <v>8813</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.6998600961763022</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.4947319671291258</v>
+        <v>0.4585226370920537</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.8617355429472418</v>
+        <v>0.8674603194199286</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>7</v>
@@ -2687,19 +2687,19 @@
         <v>2996</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>1322</v>
+        <v>1374</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>4828</v>
+        <v>4801</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.3512654703208811</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.1550093566061002</v>
+        <v>0.1610815048319501</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.5661087621110683</v>
+        <v>0.5629759876090011</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>23</v>
@@ -2708,19 +2708,19 @@
         <v>10106</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>7414</v>
+        <v>7280</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>12732</v>
+        <v>12828</v>
       </c>
       <c r="U35" s="6" t="n">
-        <v>0.5407832290616662</v>
+        <v>0.5407832290616661</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.3967394443017381</v>
+        <v>0.3895607475712854</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.681309982968705</v>
+        <v>0.6864633103373194</v>
       </c>
     </row>
     <row r="36">
@@ -2750,19 +2750,19 @@
         <v>1414</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>375</v>
+        <v>380</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>3599</v>
+        <v>3578</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.1657650976196268</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.04398474854878029</v>
+        <v>0.04458709238444566</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.4220507296275535</v>
+        <v>0.4195617632014481</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>3</v>
@@ -2771,19 +2771,19 @@
         <v>1414</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>356</v>
+        <v>360</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>3899</v>
+        <v>3794</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.07564486211333248</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.01907192585081725</v>
+        <v>0.01924586536818788</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.2086316149451568</v>
+        <v>0.2030389136147824</v>
       </c>
     </row>
     <row r="37">
@@ -2816,7 +2816,7 @@
         <v>0</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>1258</v>
+        <v>1509</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.03348311697990273</v>
@@ -2825,7 +2825,7 @@
         <v>0</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.1475076740637863</v>
+        <v>0.1769658447261509</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>1</v>
@@ -2837,7 +2837,7 @@
         <v>0</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>1489</v>
+        <v>1584</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.01527960833396471</v>
@@ -2846,7 +2846,7 @@
         <v>0</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.07966319415526482</v>
+        <v>0.08475433571816358</v>
       </c>
     </row>
     <row r="38">
@@ -2863,19 +2863,19 @@
         <v>1226</v>
       </c>
       <c r="E38" s="5" t="n">
-        <v>346</v>
+        <v>335</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>3085</v>
+        <v>3259</v>
       </c>
       <c r="G38" s="6" t="n">
         <v>0.1206910570039939</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.03406137446158133</v>
+        <v>0.03298037363662457</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.3036537958316118</v>
+        <v>0.3207526537356755</v>
       </c>
       <c r="J38" s="5" t="n">
         <v>3</v>
@@ -2884,19 +2884,19 @@
         <v>1200</v>
       </c>
       <c r="L38" s="5" t="n">
-        <v>372</v>
+        <v>381</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>3140</v>
+        <v>2928</v>
       </c>
       <c r="N38" s="6" t="n">
         <v>0.140757995012943</v>
       </c>
       <c r="O38" s="6" t="n">
-        <v>0.04358775969819471</v>
+        <v>0.04464358946932222</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.3681591894019087</v>
+        <v>0.3432944338343487</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>6</v>
@@ -2905,19 +2905,19 @@
         <v>2426</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>1122</v>
+        <v>1100</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>4982</v>
+        <v>4832</v>
       </c>
       <c r="U38" s="6" t="n">
         <v>0.1298483571867317</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.06002747867215198</v>
+        <v>0.05888652015394663</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.2665855237558326</v>
+        <v>0.2585734951609466</v>
       </c>
     </row>
     <row r="39">
@@ -3022,19 +3022,19 @@
         <v>7246</v>
       </c>
       <c r="L40" s="5" t="n">
-        <v>3929</v>
+        <v>3471</v>
       </c>
       <c r="M40" s="5" t="n">
-        <v>11847</v>
+        <v>11609</v>
       </c>
       <c r="N40" s="6" t="n">
         <v>0.2110980631247572</v>
       </c>
       <c r="O40" s="6" t="n">
-        <v>0.114454244921435</v>
+        <v>0.1011178314246026</v>
       </c>
       <c r="P40" s="6" t="n">
-        <v>0.3451540147263151</v>
+        <v>0.3382128258411404</v>
       </c>
       <c r="Q40" s="5" t="n">
         <v>10</v>
@@ -3043,19 +3043,19 @@
         <v>7246</v>
       </c>
       <c r="S40" s="5" t="n">
-        <v>3799</v>
+        <v>3562</v>
       </c>
       <c r="T40" s="5" t="n">
-        <v>12836</v>
+        <v>12525</v>
       </c>
       <c r="U40" s="6" t="n">
         <v>0.1242260272721315</v>
       </c>
       <c r="V40" s="6" t="n">
-        <v>0.06512399091236569</v>
+        <v>0.06107439866600323</v>
       </c>
       <c r="W40" s="6" t="n">
-        <v>0.2200587272658127</v>
+        <v>0.2147368376591694</v>
       </c>
     </row>
     <row r="41">
@@ -3072,19 +3072,19 @@
         <v>16074</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>11330</v>
+        <v>11470</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>19968</v>
+        <v>19940</v>
       </c>
       <c r="G41" s="6" t="n">
         <v>0.6696567867154932</v>
       </c>
       <c r="H41" s="6" t="n">
-        <v>0.4719962712037492</v>
+        <v>0.4778418186108872</v>
       </c>
       <c r="I41" s="6" t="n">
-        <v>0.8318564632497844</v>
+        <v>0.8307012199675157</v>
       </c>
       <c r="J41" s="5" t="n">
         <v>36</v>
@@ -3093,19 +3093,19 @@
         <v>24422</v>
       </c>
       <c r="L41" s="5" t="n">
-        <v>19796</v>
+        <v>20037</v>
       </c>
       <c r="M41" s="5" t="n">
-        <v>28197</v>
+        <v>28888</v>
       </c>
       <c r="N41" s="6" t="n">
-        <v>0.7114910798264633</v>
+        <v>0.7114910798264632</v>
       </c>
       <c r="O41" s="6" t="n">
-        <v>0.5767133037092474</v>
+        <v>0.5837291386915245</v>
       </c>
       <c r="P41" s="6" t="n">
-        <v>0.8214854531957055</v>
+        <v>0.8416113767275473</v>
       </c>
       <c r="Q41" s="5" t="n">
         <v>53</v>
@@ -3114,19 +3114,19 @@
         <v>40496</v>
       </c>
       <c r="S41" s="5" t="n">
-        <v>33514</v>
+        <v>33774</v>
       </c>
       <c r="T41" s="5" t="n">
-        <v>46126</v>
+        <v>46117</v>
       </c>
       <c r="U41" s="6" t="n">
-        <v>0.6942752410963009</v>
+        <v>0.694275241096301</v>
       </c>
       <c r="V41" s="6" t="n">
-        <v>0.5745712349123573</v>
+        <v>0.5790235736586498</v>
       </c>
       <c r="W41" s="6" t="n">
-        <v>0.7907864489532326</v>
+        <v>0.7906348342377814</v>
       </c>
     </row>
     <row r="42">
@@ -3159,7 +3159,7 @@
         <v>0</v>
       </c>
       <c r="M42" s="5" t="n">
-        <v>2715</v>
+        <v>2813</v>
       </c>
       <c r="N42" s="6" t="n">
         <v>0.01971170504765198</v>
@@ -3168,7 +3168,7 @@
         <v>0</v>
       </c>
       <c r="P42" s="6" t="n">
-        <v>0.07910395641539823</v>
+        <v>0.08194877700300857</v>
       </c>
       <c r="Q42" s="5" t="n">
         <v>1</v>
@@ -3180,7 +3180,7 @@
         <v>0</v>
       </c>
       <c r="T42" s="5" t="n">
-        <v>3452</v>
+        <v>3420</v>
       </c>
       <c r="U42" s="6" t="n">
         <v>0.01159985445902771</v>
@@ -3189,7 +3189,7 @@
         <v>0</v>
       </c>
       <c r="W42" s="6" t="n">
-        <v>0.05918800505071282</v>
+        <v>0.05862939395864517</v>
       </c>
     </row>
     <row r="43">
@@ -3209,7 +3209,7 @@
         <v>0</v>
       </c>
       <c r="F43" s="5" t="n">
-        <v>5144</v>
+        <v>5418</v>
       </c>
       <c r="G43" s="6" t="n">
         <v>0.04183554590561189</v>
@@ -3218,7 +3218,7 @@
         <v>0</v>
       </c>
       <c r="I43" s="6" t="n">
-        <v>0.2143061590733402</v>
+        <v>0.2257166904074516</v>
       </c>
       <c r="J43" s="5" t="n">
         <v>0</v>
@@ -3243,16 +3243,16 @@
         <v>0</v>
       </c>
       <c r="T43" s="5" t="n">
-        <v>4045</v>
+        <v>5028</v>
       </c>
       <c r="U43" s="6" t="n">
-        <v>0.01721635428591603</v>
+        <v>0.01721635428591602</v>
       </c>
       <c r="V43" s="6" t="n">
         <v>0</v>
       </c>
       <c r="W43" s="6" t="n">
-        <v>0.06935104170259726</v>
+        <v>0.08619272541150316</v>
       </c>
     </row>
     <row r="44">
@@ -3269,19 +3269,19 @@
         <v>6925</v>
       </c>
       <c r="E44" s="5" t="n">
-        <v>3386</v>
+        <v>3342</v>
       </c>
       <c r="F44" s="5" t="n">
-        <v>11623</v>
+        <v>12017</v>
       </c>
       <c r="G44" s="6" t="n">
         <v>0.2885076673788947</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.1410456992139504</v>
+        <v>0.1392063545112666</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>0.4842068098334359</v>
+        <v>0.5006323360618564</v>
       </c>
       <c r="J44" s="5" t="n">
         <v>3</v>
@@ -3290,19 +3290,19 @@
         <v>1981</v>
       </c>
       <c r="L44" s="5" t="n">
-        <v>636</v>
+        <v>643</v>
       </c>
       <c r="M44" s="5" t="n">
-        <v>5295</v>
+        <v>5428</v>
       </c>
       <c r="N44" s="6" t="n">
-        <v>0.05769915200112748</v>
+        <v>0.05769915200112749</v>
       </c>
       <c r="O44" s="6" t="n">
-        <v>0.01852162535333635</v>
+        <v>0.01874040620084702</v>
       </c>
       <c r="P44" s="6" t="n">
-        <v>0.1542557653450533</v>
+        <v>0.1581303495507663</v>
       </c>
       <c r="Q44" s="5" t="n">
         <v>11</v>
@@ -3311,19 +3311,19 @@
         <v>8906</v>
       </c>
       <c r="S44" s="5" t="n">
-        <v>4844</v>
+        <v>4919</v>
       </c>
       <c r="T44" s="5" t="n">
-        <v>15258</v>
+        <v>14619</v>
       </c>
       <c r="U44" s="6" t="n">
         <v>0.1526825228866237</v>
       </c>
       <c r="V44" s="6" t="n">
-        <v>0.0830489772087571</v>
+        <v>0.08433871860854369</v>
       </c>
       <c r="W44" s="6" t="n">
-        <v>0.2615866020349843</v>
+        <v>0.2506295441535527</v>
       </c>
     </row>
     <row r="45">
@@ -3465,7 +3465,7 @@
         <v>0</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>4815</v>
+        <v>4743</v>
       </c>
       <c r="G47" s="6" t="n">
         <v>0.1151064849806231</v>
@@ -3474,7 +3474,7 @@
         <v>0</v>
       </c>
       <c r="I47" s="6" t="n">
-        <v>0.3559477276770889</v>
+        <v>0.3506392403290126</v>
       </c>
       <c r="J47" s="5" t="n">
         <v>11</v>
@@ -3483,19 +3483,19 @@
         <v>7069</v>
       </c>
       <c r="L47" s="5" t="n">
-        <v>3826</v>
+        <v>3753</v>
       </c>
       <c r="M47" s="5" t="n">
-        <v>11607</v>
+        <v>11606</v>
       </c>
       <c r="N47" s="6" t="n">
-        <v>0.2025995477537811</v>
+        <v>0.2025995477537812</v>
       </c>
       <c r="O47" s="6" t="n">
-        <v>0.1096630082060038</v>
+        <v>0.107561049003798</v>
       </c>
       <c r="P47" s="6" t="n">
-        <v>0.3326550872475663</v>
+        <v>0.3326222022841022</v>
       </c>
       <c r="Q47" s="5" t="n">
         <v>13</v>
@@ -3504,19 +3504,19 @@
         <v>8626</v>
       </c>
       <c r="S47" s="5" t="n">
-        <v>4942</v>
+        <v>4996</v>
       </c>
       <c r="T47" s="5" t="n">
-        <v>14067</v>
+        <v>13577</v>
       </c>
       <c r="U47" s="6" t="n">
         <v>0.1781547430627644</v>
       </c>
       <c r="V47" s="6" t="n">
-        <v>0.1020582845705781</v>
+        <v>0.103186464561514</v>
       </c>
       <c r="W47" s="6" t="n">
-        <v>0.2905244621815753</v>
+        <v>0.2803917235770576</v>
       </c>
     </row>
     <row r="48">
@@ -3536,7 +3536,7 @@
         <v>0</v>
       </c>
       <c r="F48" s="5" t="n">
-        <v>3424</v>
+        <v>2843</v>
       </c>
       <c r="G48" s="6" t="n">
         <v>0.05026232409950696</v>
@@ -3545,7 +3545,7 @@
         <v>0</v>
       </c>
       <c r="I48" s="6" t="n">
-        <v>0.2531000018388652</v>
+        <v>0.210191247071659</v>
       </c>
       <c r="J48" s="5" t="n">
         <v>3</v>
@@ -3554,19 +3554,19 @@
         <v>2065</v>
       </c>
       <c r="L48" s="5" t="n">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="M48" s="5" t="n">
-        <v>5463</v>
+        <v>5945</v>
       </c>
       <c r="N48" s="6" t="n">
-        <v>0.05917149271117352</v>
+        <v>0.05917149271117353</v>
       </c>
       <c r="O48" s="6" t="n">
-        <v>0.01602858733959307</v>
+        <v>0.01604105533526836</v>
       </c>
       <c r="P48" s="6" t="n">
-        <v>0.1565704484989267</v>
+        <v>0.17039362720902</v>
       </c>
       <c r="Q48" s="5" t="n">
         <v>4</v>
@@ -3575,19 +3575,19 @@
         <v>2745</v>
       </c>
       <c r="S48" s="5" t="n">
-        <v>853</v>
+        <v>705</v>
       </c>
       <c r="T48" s="5" t="n">
-        <v>6263</v>
+        <v>6749</v>
       </c>
       <c r="U48" s="6" t="n">
-        <v>0.05668234808908882</v>
+        <v>0.05668234808908881</v>
       </c>
       <c r="V48" s="6" t="n">
-        <v>0.0176246654841054</v>
+        <v>0.01455628105022356</v>
       </c>
       <c r="W48" s="6" t="n">
-        <v>0.1293558328378948</v>
+        <v>0.1393768793321706</v>
       </c>
     </row>
     <row r="49">
@@ -3604,19 +3604,19 @@
         <v>4054</v>
       </c>
       <c r="E49" s="5" t="n">
-        <v>1948</v>
+        <v>1406</v>
       </c>
       <c r="F49" s="5" t="n">
-        <v>7087</v>
+        <v>6996</v>
       </c>
       <c r="G49" s="6" t="n">
         <v>0.2997104701288575</v>
       </c>
       <c r="H49" s="6" t="n">
-        <v>0.14398919866044</v>
+        <v>0.103916421055983</v>
       </c>
       <c r="I49" s="6" t="n">
-        <v>0.5238762135438612</v>
+        <v>0.5171444972449794</v>
       </c>
       <c r="J49" s="5" t="n">
         <v>25</v>
@@ -3625,19 +3625,19 @@
         <v>16608</v>
       </c>
       <c r="L49" s="5" t="n">
-        <v>11674</v>
+        <v>11414</v>
       </c>
       <c r="M49" s="5" t="n">
-        <v>21757</v>
+        <v>21684</v>
       </c>
       <c r="N49" s="6" t="n">
-        <v>0.4759930635675361</v>
+        <v>0.4759930635675362</v>
       </c>
       <c r="O49" s="6" t="n">
-        <v>0.3345697155731003</v>
+        <v>0.3271286454181921</v>
       </c>
       <c r="P49" s="6" t="n">
-        <v>0.6235464339419438</v>
+        <v>0.6214483139034409</v>
       </c>
       <c r="Q49" s="5" t="n">
         <v>31</v>
@@ -3646,19 +3646,19 @@
         <v>20663</v>
       </c>
       <c r="S49" s="5" t="n">
-        <v>15409</v>
+        <v>15307</v>
       </c>
       <c r="T49" s="5" t="n">
-        <v>27092</v>
+        <v>26510</v>
       </c>
       <c r="U49" s="6" t="n">
-        <v>0.4267412322742737</v>
+        <v>0.4267412322742735</v>
       </c>
       <c r="V49" s="6" t="n">
-        <v>0.3182367827198825</v>
+        <v>0.31613777581962</v>
       </c>
       <c r="W49" s="6" t="n">
-        <v>0.5595223224404974</v>
+        <v>0.5474951038312708</v>
       </c>
     </row>
     <row r="50">
@@ -3675,19 +3675,19 @@
         <v>7236</v>
       </c>
       <c r="E50" s="5" t="n">
-        <v>4206</v>
+        <v>4242</v>
       </c>
       <c r="F50" s="5" t="n">
-        <v>10149</v>
+        <v>10260</v>
       </c>
       <c r="G50" s="6" t="n">
         <v>0.5349207207910126</v>
       </c>
       <c r="H50" s="6" t="n">
-        <v>0.3109013066066443</v>
+        <v>0.3135392595702293</v>
       </c>
       <c r="I50" s="6" t="n">
-        <v>0.7502335057901686</v>
+        <v>0.7584292929880929</v>
       </c>
       <c r="J50" s="5" t="n">
         <v>13</v>
@@ -3696,19 +3696,19 @@
         <v>9150</v>
       </c>
       <c r="L50" s="5" t="n">
-        <v>4889</v>
+        <v>4979</v>
       </c>
       <c r="M50" s="5" t="n">
-        <v>14039</v>
+        <v>14276</v>
       </c>
       <c r="N50" s="6" t="n">
         <v>0.2622358959675092</v>
       </c>
       <c r="O50" s="6" t="n">
-        <v>0.1401083516361011</v>
+        <v>0.1426924638438437</v>
       </c>
       <c r="P50" s="6" t="n">
-        <v>0.4023426598816736</v>
+        <v>0.4091570330626469</v>
       </c>
       <c r="Q50" s="5" t="n">
         <v>23</v>
@@ -3717,19 +3717,19 @@
         <v>16386</v>
       </c>
       <c r="S50" s="5" t="n">
-        <v>11196</v>
+        <v>10631</v>
       </c>
       <c r="T50" s="5" t="n">
-        <v>22413</v>
+        <v>21937</v>
       </c>
       <c r="U50" s="6" t="n">
-        <v>0.3384216765738733</v>
+        <v>0.3384216765738732</v>
       </c>
       <c r="V50" s="6" t="n">
-        <v>0.2312365295396829</v>
+        <v>0.2195679388129238</v>
       </c>
       <c r="W50" s="6" t="n">
-        <v>0.4628937921118988</v>
+        <v>0.4530614078777959</v>
       </c>
     </row>
     <row r="51">
@@ -3821,19 +3821,19 @@
         <v>2433</v>
       </c>
       <c r="E52" s="5" t="n">
-        <v>999</v>
+        <v>923</v>
       </c>
       <c r="F52" s="5" t="n">
-        <v>5411</v>
+        <v>4948</v>
       </c>
       <c r="G52" s="6" t="n">
         <v>0.03346042764996544</v>
       </c>
       <c r="H52" s="6" t="n">
-        <v>0.01373338448077071</v>
+        <v>0.01269835772638239</v>
       </c>
       <c r="I52" s="6" t="n">
-        <v>0.07441840569717512</v>
+        <v>0.06804213289107425</v>
       </c>
       <c r="J52" s="5" t="n">
         <v>25</v>
@@ -3842,19 +3842,19 @@
         <v>14386</v>
       </c>
       <c r="L52" s="5" t="n">
-        <v>9180</v>
+        <v>9615</v>
       </c>
       <c r="M52" s="5" t="n">
-        <v>20899</v>
+        <v>20831</v>
       </c>
       <c r="N52" s="6" t="n">
         <v>0.09871188642479489</v>
       </c>
       <c r="O52" s="6" t="n">
-        <v>0.0629909197013036</v>
+        <v>0.06597889128555283</v>
       </c>
       <c r="P52" s="6" t="n">
-        <v>0.1434058297937465</v>
+        <v>0.14294000414911</v>
       </c>
       <c r="Q52" s="5" t="n">
         <v>31</v>
@@ -3863,19 +3863,19 @@
         <v>16819</v>
       </c>
       <c r="S52" s="5" t="n">
-        <v>11706</v>
+        <v>11663</v>
       </c>
       <c r="T52" s="5" t="n">
-        <v>23834</v>
+        <v>23986</v>
       </c>
       <c r="U52" s="6" t="n">
-        <v>0.0769919915570879</v>
+        <v>0.07699199155708791</v>
       </c>
       <c r="V52" s="6" t="n">
-        <v>0.05358839461317697</v>
+        <v>0.05338922796039912</v>
       </c>
       <c r="W52" s="6" t="n">
-        <v>0.1091062447264875</v>
+        <v>0.1098044557532624</v>
       </c>
     </row>
     <row r="53">
@@ -3892,19 +3892,19 @@
         <v>36958</v>
       </c>
       <c r="E53" s="5" t="n">
-        <v>30286</v>
+        <v>29712</v>
       </c>
       <c r="F53" s="5" t="n">
-        <v>44090</v>
+        <v>44015</v>
       </c>
       <c r="G53" s="6" t="n">
         <v>0.508266276372925</v>
       </c>
       <c r="H53" s="6" t="n">
-        <v>0.4165093325904505</v>
+        <v>0.4086178510882298</v>
       </c>
       <c r="I53" s="6" t="n">
-        <v>0.6063565578378137</v>
+        <v>0.605319284388534</v>
       </c>
       <c r="J53" s="5" t="n">
         <v>158</v>
@@ -3913,19 +3913,19 @@
         <v>84622</v>
       </c>
       <c r="L53" s="5" t="n">
-        <v>75572</v>
+        <v>75214</v>
       </c>
       <c r="M53" s="5" t="n">
-        <v>92384</v>
+        <v>93702</v>
       </c>
       <c r="N53" s="6" t="n">
-        <v>0.5806623544428813</v>
+        <v>0.5806623544428812</v>
       </c>
       <c r="O53" s="6" t="n">
-        <v>0.5185606920846904</v>
+        <v>0.5161021327642697</v>
       </c>
       <c r="P53" s="6" t="n">
-        <v>0.6339207432776652</v>
+        <v>0.6429668587626333</v>
       </c>
       <c r="Q53" s="5" t="n">
         <v>213</v>
@@ -3934,19 +3934,19 @@
         <v>121580</v>
       </c>
       <c r="S53" s="5" t="n">
-        <v>110783</v>
+        <v>110024</v>
       </c>
       <c r="T53" s="5" t="n">
-        <v>132400</v>
+        <v>133417</v>
       </c>
       <c r="U53" s="6" t="n">
-        <v>0.556564269372631</v>
+        <v>0.5565642693726311</v>
       </c>
       <c r="V53" s="6" t="n">
-        <v>0.5071411488289446</v>
+        <v>0.5036652318917783</v>
       </c>
       <c r="W53" s="6" t="n">
-        <v>0.6060957627911822</v>
+        <v>0.6107502755894358</v>
       </c>
     </row>
     <row r="54">
@@ -3966,7 +3966,7 @@
         <v>0</v>
       </c>
       <c r="F54" s="5" t="n">
-        <v>3811</v>
+        <v>3378</v>
       </c>
       <c r="G54" s="6" t="n">
         <v>0.009351117435697599</v>
@@ -3975,7 +3975,7 @@
         <v>0</v>
       </c>
       <c r="I54" s="6" t="n">
-        <v>0.05240711767244532</v>
+        <v>0.04645698617703969</v>
       </c>
       <c r="J54" s="5" t="n">
         <v>8</v>
@@ -3984,19 +3984,19 @@
         <v>4620</v>
       </c>
       <c r="L54" s="5" t="n">
-        <v>2341</v>
+        <v>2080</v>
       </c>
       <c r="M54" s="5" t="n">
-        <v>9201</v>
+        <v>8978</v>
       </c>
       <c r="N54" s="6" t="n">
         <v>0.03170481320464064</v>
       </c>
       <c r="O54" s="6" t="n">
-        <v>0.01606302153302937</v>
+        <v>0.01426937547962796</v>
       </c>
       <c r="P54" s="6" t="n">
-        <v>0.06313550611782044</v>
+        <v>0.0616074083405</v>
       </c>
       <c r="Q54" s="5" t="n">
         <v>9</v>
@@ -4005,19 +4005,19 @@
         <v>5300</v>
       </c>
       <c r="S54" s="5" t="n">
-        <v>2596</v>
+        <v>2587</v>
       </c>
       <c r="T54" s="5" t="n">
-        <v>10527</v>
+        <v>10449</v>
       </c>
       <c r="U54" s="6" t="n">
         <v>0.02426406121039653</v>
       </c>
       <c r="V54" s="6" t="n">
-        <v>0.01188298759864866</v>
+        <v>0.01184117403037198</v>
       </c>
       <c r="W54" s="6" t="n">
-        <v>0.04819109625803874</v>
+        <v>0.04783099555944682</v>
       </c>
     </row>
     <row r="55">
@@ -4034,19 +4034,19 @@
         <v>7658</v>
       </c>
       <c r="E55" s="5" t="n">
-        <v>4183</v>
+        <v>3978</v>
       </c>
       <c r="F55" s="5" t="n">
-        <v>12216</v>
+        <v>12596</v>
       </c>
       <c r="G55" s="6" t="n">
         <v>0.1053124773299881</v>
       </c>
       <c r="H55" s="6" t="n">
-        <v>0.05753336970674283</v>
+        <v>0.05470865318243589</v>
       </c>
       <c r="I55" s="6" t="n">
-        <v>0.1680075681447912</v>
+        <v>0.1732223883033141</v>
       </c>
       <c r="J55" s="5" t="n">
         <v>35</v>
@@ -4055,19 +4055,19 @@
         <v>21312</v>
       </c>
       <c r="L55" s="5" t="n">
-        <v>15271</v>
+        <v>15817</v>
       </c>
       <c r="M55" s="5" t="n">
-        <v>28594</v>
+        <v>30155</v>
       </c>
       <c r="N55" s="6" t="n">
         <v>0.1462375441156728</v>
       </c>
       <c r="O55" s="6" t="n">
-        <v>0.1047898322232408</v>
+        <v>0.1085325354459935</v>
       </c>
       <c r="P55" s="6" t="n">
-        <v>0.1962041917089439</v>
+        <v>0.2069188470793517</v>
       </c>
       <c r="Q55" s="5" t="n">
         <v>47</v>
@@ -4076,19 +4076,19 @@
         <v>28969</v>
       </c>
       <c r="S55" s="5" t="n">
-        <v>21724</v>
+        <v>21510</v>
       </c>
       <c r="T55" s="5" t="n">
-        <v>36905</v>
+        <v>37209</v>
       </c>
       <c r="U55" s="6" t="n">
         <v>0.132615041803405</v>
       </c>
       <c r="V55" s="6" t="n">
-        <v>0.09944745893506407</v>
+        <v>0.0984698277928054</v>
       </c>
       <c r="W55" s="6" t="n">
-        <v>0.1689411094262313</v>
+        <v>0.1703354354240078</v>
       </c>
     </row>
     <row r="56">
@@ -4105,19 +4105,19 @@
         <v>24985</v>
       </c>
       <c r="E56" s="5" t="n">
-        <v>18554</v>
+        <v>18642</v>
       </c>
       <c r="F56" s="5" t="n">
-        <v>31817</v>
+        <v>32158</v>
       </c>
       <c r="G56" s="6" t="n">
         <v>0.3436097012114239</v>
       </c>
       <c r="H56" s="6" t="n">
-        <v>0.2551724896445453</v>
+        <v>0.2563804896982615</v>
       </c>
       <c r="I56" s="6" t="n">
-        <v>0.4375628999808953</v>
+        <v>0.4422597120709089</v>
       </c>
       <c r="J56" s="5" t="n">
         <v>37</v>
@@ -4126,19 +4126,19 @@
         <v>20794</v>
       </c>
       <c r="L56" s="5" t="n">
-        <v>14983</v>
+        <v>14981</v>
       </c>
       <c r="M56" s="5" t="n">
-        <v>28796</v>
+        <v>28231</v>
       </c>
       <c r="N56" s="6" t="n">
         <v>0.1426834018120105</v>
       </c>
       <c r="O56" s="6" t="n">
-        <v>0.1028083532247803</v>
+        <v>0.1027971393207897</v>
       </c>
       <c r="P56" s="6" t="n">
-        <v>0.1975960145220623</v>
+        <v>0.1937138079504133</v>
       </c>
       <c r="Q56" s="5" t="n">
         <v>74</v>
@@ -4147,19 +4147,19 @@
         <v>45779</v>
       </c>
       <c r="S56" s="5" t="n">
-        <v>36381</v>
+        <v>36266</v>
       </c>
       <c r="T56" s="5" t="n">
-        <v>55576</v>
+        <v>55505</v>
       </c>
       <c r="U56" s="6" t="n">
         <v>0.2095646360564794</v>
       </c>
       <c r="V56" s="6" t="n">
-        <v>0.1665454751939071</v>
+        <v>0.1660168399696089</v>
       </c>
       <c r="W56" s="6" t="n">
-        <v>0.2544141961562119</v>
+        <v>0.2540893156771922</v>
       </c>
     </row>
     <row r="57">
